--- a/KhanhNguyen - EPHN065 Performance Management Review 2020.xlsx
+++ b/KhanhNguyen - EPHN065 Performance Management Review 2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khng\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\example_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3463C889-EB42-4D3D-982D-351BA98CCBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96538EF1-CA85-4712-B534-F2E500F71731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>Performance Management Review</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Interns join company usually don't have clear view on software engineering. Tutoring them with alignment to Episerver's eco-system is a win-win situation.</t>
+  </si>
+  <si>
+    <t>dfdsfsdf</t>
   </si>
 </sst>
 </file>
@@ -1323,6 +1326,114 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1335,118 +1446,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1458,107 +1479,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1883,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1899,86 +1902,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="27.75" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="72">
         <v>2020</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" s="19" customFormat="1" ht="98.25">
       <c r="A8" s="31" t="s">
@@ -2095,229 +2098,231 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="74" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="77" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A18" s="89"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="78"/>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A19" s="89"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A20" s="89"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="78"/>
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="78"/>
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A22" s="89"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="76"/>
+      <c r="C23" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="79"/>
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A24" s="89"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="76"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="79"/>
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="76"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="79"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A26" s="89"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="76"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="79"/>
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A27" s="89"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="76"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="79"/>
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A28" s="89"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="76"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="79"/>
     </row>
     <row r="29" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A29" s="89"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="76"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="79"/>
     </row>
     <row r="30" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="76"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="79"/>
     </row>
     <row r="31" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A31" s="89"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="76"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="79"/>
     </row>
     <row r="32" spans="1:9" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A32" s="89"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="76"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="79"/>
       <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:6" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A33" s="89"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="76"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="79"/>
     </row>
     <row r="34" spans="1:6" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A34" s="89"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="76"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="79"/>
     </row>
     <row r="35" spans="1:6" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A35" s="89"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="76"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="79"/>
     </row>
     <row r="36" spans="1:6" s="12" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A36" s="95"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="77"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="80"/>
     </row>
     <row r="37" spans="1:6" ht="70.150000000000006" customHeight="1" thickBot="1">
       <c r="A37" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="35" t="s">
         <v>66</v>
       </c>
@@ -2326,233 +2331,266 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="2.25" customHeight="1" thickBot="1">
-      <c r="A38" s="69"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
     </row>
     <row r="39" spans="1:6" ht="77.25" customHeight="1" thickBot="1">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="84" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="61"/>
     </row>
     <row r="40" spans="1:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A40" s="67"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
     </row>
     <row r="41" spans="1:6" ht="93" customHeight="1" thickBot="1">
-      <c r="A41" s="68"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
     </row>
     <row r="42" spans="1:6" ht="70.150000000000006" customHeight="1" thickBot="1">
       <c r="A42" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="92"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="91"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="91"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A46" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="59"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="C17:C22"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="B62:F62"/>
@@ -2569,39 +2607,6 @@
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="F17:F22"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="E30:E36"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
@@ -2632,15 +2637,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="132"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="110"/>
     </row>
     <row r="2" spans="1:7" s="48" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A2" s="47" t="s">
@@ -2649,298 +2654,303 @@
       <c r="B2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="117"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="118" t="s">
+      <c r="A4" s="112"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="118" t="s">
+      <c r="A5" s="112"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="112" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="124"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="117"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="125"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="118" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="120"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A9" s="125"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="118" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A10" s="126"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="112" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="99"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="118" t="s">
+      <c r="A12" s="112"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="120"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="118" t="s">
+      <c r="A13" s="112"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="120"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A14" s="100"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="112" t="s">
+      <c r="A14" s="131"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="127"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A16" s="99"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="103" t="s">
+      <c r="A16" s="112"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="103" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="103" t="s">
+      <c r="A18" s="112"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="103" t="s">
+      <c r="A19" s="112"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="121"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A20" s="100"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="106" t="s">
+      <c r="A20" s="131"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="130"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="111"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A22" s="99"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="103" t="s">
+      <c r="A22" s="112"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="121"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="103" t="s">
+      <c r="A23" s="112"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="121"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="103" t="s">
+      <c r="A24" s="112"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="121"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="106" t="s">
+      <c r="A25" s="132"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
@@ -2953,20 +2963,15 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
@@ -2974,12 +2979,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3115,15 +3117,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961DDEAA-5259-4361-B434-4B222BAECD88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BBDC2AF-BC8A-4253-8B61-DC33447D43BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="059d2645-b8db-43af-b719-b3ad61c64fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3147,17 +3160,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BBDC2AF-BC8A-4253-8B61-DC33447D43BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961DDEAA-5259-4361-B434-4B222BAECD88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="059d2645-b8db-43af-b719-b3ad61c64fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>